--- a/data/case1/14/V1_2.xlsx
+++ b/data/case1/14/V1_2.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.99999999344307211</v>
+        <v>0.99999999550202245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.99498223453201018</v>
+        <v>0.99283520683621196</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.97504734482734057</v>
+        <v>0.96440315485856054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.96620206993931523</v>
+        <v>0.95611271779620932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.95779615963326969</v>
+        <v>0.9482797127603122</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.93746092570430939</v>
+        <v>0.92948079187027233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.93368477299591079</v>
+        <v>0.92710507076234405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.92348880679963452</v>
+        <v>0.92437089066789158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.90982268235471997</v>
+        <v>0.92361497048004682</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.90276433653578747</v>
+        <v>0.92381089084298063</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.90174868882218517</v>
+        <v>0.92395469048301837</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.89896808302685982</v>
+        <v>0.92117468633073518</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.88767834494777953</v>
+        <v>0.90988698371531918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.88351042140619884</v>
+        <v>0.905719458043581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.8809186528551709</v>
+        <v>0.90312787562476338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.87841195874523337</v>
+        <v>0.90062131934552792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>0.87470383694595033</v>
+        <v>0.89691331828487675</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>0.87359491639896847</v>
+        <v>0.89580439366589248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.99263789935935598</v>
+        <v>0.98933922890635295</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.97400859297958298</v>
+        <v>0.98222201557100564</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.96918195789738548</v>
+        <v>0.98082351065542106</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>0.96791744800225776</v>
+        <v>0.97955900265734641</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>0.96801188203007493</v>
+        <v>0.9481672462432682</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.95499032521733052</v>
+        <v>0.92453875419235543</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.94853321820373315</v>
+        <v>0.90771492526571174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.93552601574488414</v>
+        <v>0.92717153535628383</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.93307895807553587</v>
+        <v>0.92420173684317208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>0.92240196721764556</v>
+        <v>0.91143684017547977</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>0.91516615763759679</v>
+        <v>0.90263429410829854</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.90859640568051825</v>
+        <v>0.89928806939768502</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.90094313057518627</v>
+        <v>0.89986374028544702</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.89926383949466948</v>
+        <v>0.89818440793113397</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.89874383880326181</v>
+        <v>0.89766439260319442</v>
       </c>
     </row>
   </sheetData>
